--- a/data/trans_bre/P25_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 5,94</t>
+          <t>-4,69; 11,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 4,11</t>
+          <t>-7,11; 8,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 18,32</t>
+          <t>-8,27; 9,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 38,47</t>
+          <t>-3,32; 14,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 30,62</t>
+          <t>-23,14; 94,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 107,97</t>
+          <t>-36,63; 74,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 65,73</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-17,4; 115,66</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-8,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-41,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>-36,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-33,78%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-22,54%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,01</t>
+          <t>-17,43; -0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,58</t>
+          <t>-13,54; 1,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 8,58</t>
+          <t>-14,18; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 53,97</t>
+          <t>-12,92; 4,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 65,78</t>
+          <t>-67,48; 1,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 69,3</t>
+          <t>-67,58; 15,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-62,07; 16,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,13; 33,2</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,31%</t>
+          <t>-27,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-10,65%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-14,8%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,55; 11,36</t>
+          <t>-28,21; 15,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 14,56</t>
+          <t>-23,78; 13,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 11,36</t>
+          <t>-23,08; 17,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 64,46</t>
+          <t>-23,84; 20,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 101,72</t>
+          <t>-78,18; 159,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,11; 68,59</t>
+          <t>-82,63; 220,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-78,28; 259,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-82,01; 344,02</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-15,57%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-15,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,13</t>
+          <t>-7,99; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,14</t>
+          <t>-7,2; 3,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,31</t>
+          <t>-8,36; 3,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 18,98</t>
+          <t>-5,5; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 22,53</t>
+          <t>-37,15; 21,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 58,76</t>
+          <t>-38,96; 26,51</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; 20,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-26,01; 46,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,78%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.796297482749434</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1996552270747992</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5529711470299792</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.882364186600623</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1047640670838411</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.01298044101820348</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.02977244570544977</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2257726718782087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 11,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 8,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,27; 9,11</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 14,97</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-23,14; 94,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-36,63; 74,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,4; 65,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 115,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.54662122643068</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.359942244945166</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.120166575911682</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.868042293215118</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3019510081096958</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3856127493831786</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3605218325961623</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1983389231003493</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.907325399406146</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.028183636208588</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.666157522582893</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.03463333911154</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.7841162985967676</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6925853751650686</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6356804468303293</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.110726921303266</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,99</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-41,86%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-36,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-33,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-22,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,43; -0,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 1,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 2,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 4,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-67,48; 1,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-67,58; 15,75</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-62,07; 16,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-55,13; 33,2</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.328995278477564</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.127617560348164</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.218586302400769</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.605350065444224</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4403539700384222</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2918974760010234</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.299707590700909</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.193188169227225</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-23,62%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-27,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-10,65%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-14,8%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.99115740636847</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.26926861172413</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.04715312080581</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.05211352206293</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7010408902750168</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6355726945663291</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5888929898936516</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5304622132209715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 15,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; 13,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-23,08; 17,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,84; 20,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-78,18; 159,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-82,63; 220,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-78,28; 259,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-82,01; 344,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.5338914200785958</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.213793817596572</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.326727830287553</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.721635721345566</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.01395423444596751</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3595611297762098</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2971867886731972</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4087540488960604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,57%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-15,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.097226199142382</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.845531325692434</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.13377138130765</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.361914740297273</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.3166231588669982</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2647620254201635</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1173188062226851</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1816004989943837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 3,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 3,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 3,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 6,87</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-37,15; 21,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-38,96; 26,51</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-39,18; 20,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,01; 46,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-30.38956902880539</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.88828800919129</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-22.01629002872646</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-22.93268852782004</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8088577880687229</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8288716568236451</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7761472831633697</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8259274835585969</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.56053793796821</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.41611145328891</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.1720075610963</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.70312636129864</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.398676912077963</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.562243226629809</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>3.209846546528897</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.816289797290295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.205798378480684</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.020406057895771</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.603852392448602</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1663599709018776</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1739842175746</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1333540929593262</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1443215325276452</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.009274844983008743</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.236157348501326</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.560539504802336</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.867233162987137</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.650313331685566</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4206272251403133</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3696522256289642</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3831069891834295</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2699442096889423</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.407143471154121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.6203957626669</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.559186921269485</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.43709198590503</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1620299561118178</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2979880886140921</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2370112251433728</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4362298854916772</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
